--- a/data/states_beta.xlsx
+++ b/data/states_beta.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatapudi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chaitra Gopalappa\Documents\Box Sync\Paper\COVID-19\COVID19-master\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E415D5-E102-D34A-AECE-41A3A5695198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3225F6D8-AF8F-9544-9703-A7A4A318287E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -470,16 +469,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98164EF-7103-264E-B72B-929A95C7D0F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,228 +495,72 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>0.81</v>
-      </c>
-      <c r="C2">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="D2">
-        <v>0.9</v>
-      </c>
-      <c r="E2">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>0.81</v>
-      </c>
-      <c r="C3">
-        <v>0.16</v>
-      </c>
-      <c r="D3">
-        <v>1.2</v>
-      </c>
-      <c r="E3">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>0.69</v>
-      </c>
-      <c r="C4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D4">
-        <v>1.01</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>0.67</v>
-      </c>
-      <c r="C5">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D5">
-        <v>1.2</v>
-      </c>
-      <c r="E5">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>0.75</v>
-      </c>
-      <c r="C6">
-        <v>0.25</v>
-      </c>
-      <c r="D6">
-        <v>0.1</v>
-      </c>
-      <c r="E6">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>0.77</v>
-      </c>
-      <c r="C7">
-        <v>0.04</v>
-      </c>
-      <c r="D7">
-        <v>0.8</v>
-      </c>
-      <c r="E7">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
-        <v>0.75</v>
-      </c>
-      <c r="C8">
-        <v>0.2</v>
-      </c>
-      <c r="D8">
-        <v>1.5</v>
-      </c>
-      <c r="E8">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>0.27</v>
-      </c>
-      <c r="D9">
-        <v>0.9</v>
-      </c>
-      <c r="E9">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
-        <v>0.66</v>
-      </c>
-      <c r="C10">
-        <v>0.18</v>
-      </c>
-      <c r="D10">
-        <v>1.2</v>
-      </c>
-      <c r="E10">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
-        <v>0.7</v>
-      </c>
-      <c r="C11">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D11">
-        <v>0.7</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
-        <v>0.75</v>
-      </c>
-      <c r="C12">
-        <v>0.15</v>
-      </c>
-      <c r="D12">
-        <v>1.2</v>
-      </c>
-      <c r="E12">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
-        <v>0.81</v>
-      </c>
-      <c r="C13">
-        <v>0.01</v>
-      </c>
-      <c r="D13">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E13">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.75</v>
-      </c>
-      <c r="C14">
-        <v>1E-3</v>
-      </c>
-      <c r="D14">
-        <v>0.7</v>
-      </c>
-      <c r="E14">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -734,160 +577,52 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
-        <v>0.8</v>
-      </c>
-      <c r="C16">
-        <v>1E-3</v>
-      </c>
-      <c r="D16">
-        <v>0.6</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
-        <v>0.5</v>
-      </c>
-      <c r="C17">
-        <v>0.2</v>
-      </c>
-      <c r="D17">
-        <v>0.9</v>
-      </c>
-      <c r="E17">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18">
-        <v>0.66</v>
-      </c>
-      <c r="C18">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
-        <v>0.9</v>
-      </c>
-      <c r="C19">
-        <v>0.23</v>
-      </c>
-      <c r="D19">
-        <v>1.2</v>
-      </c>
-      <c r="E19">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
-        <v>0.8</v>
-      </c>
-      <c r="C20">
-        <v>0.23</v>
-      </c>
-      <c r="D20">
-        <v>1.3</v>
-      </c>
-      <c r="E20">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21">
-        <v>0.6</v>
-      </c>
-      <c r="C21">
-        <v>0.2</v>
-      </c>
-      <c r="D21">
-        <v>1.4</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22">
-        <v>0.54</v>
-      </c>
-      <c r="C22">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="D22">
-        <v>0.9</v>
-      </c>
-      <c r="E22">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C23">
-        <v>1E-4</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24">
-        <v>0.86</v>
-      </c>
-      <c r="C24">
-        <v>0.03</v>
-      </c>
-      <c r="D24">
-        <v>1.3</v>
-      </c>
-      <c r="E24">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
